--- a/500all/speech_level/speeches_CHRG-114hhrg99411.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99411.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="427">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400320</t>
   </si>
   <si>
-    <t>Joseph R. Pitts</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pitts. The subcommittee will come to order. I apologize for starting late. We were on the floor voting, so have just concluded that. And I note that we have a large audience today.    Today's hearing topic is one that we all have strong feelings about. I respectfully ask that the audience maintain decorum so that we can all hear the testimony of the witnesses and the questions of our members, and I thank you for your courtesy.    The Chair will recognize himself for an opening statement.    Earlier this summer, on July 15, 2015, many Americans learned for the first time about some of the torturous and gruesome practices in abortion clinics related to the destruction of unborn babies. In recent weeks, our Nation and our Nation's capital has reengaged in an examination about the purveyors of abortion and their grisly practices.    Abortion supporters cloak their support for abortion under the guise of women's right to choose. Yet they conveniently ignore the choices of thousands of unborn baby girls. How ironic that pro-choice advocates oppose letting unborn babies choose life.    Yet today advances in medical practice and science confirm what we have long known from morality and common sense: Modern medicine treats the unborn child as a patient. Medical pioneers have made great breakthroughs in treating the unborn for generic problems, vitamin deficiencies, irregular heart rhythms, and other medical conditions. Science has shown us earlier and earlier glimpses of tiny, unborn human beings who can feel pain. What must such a baby feel when she is approached by doctors who come to kill rather than to cure?    Anyone who sees the arms and legs of a tiny baby can hardly doubt whether it is a human being. The real question for all of us is whether that tiny human life has a God-given right to be protected by the law, the same right we have.    Abortion is not just about the unborn child. It is about each of us. We cannot diminish the value of one category of human life, whether born or unborn, without diminishing the value of all human life. When we talk about abortion, we are talking about two lives, the life of the mother and the life of the unborn child.    Medicaid, along with CHIP, pays for roughly half of all births in the United States each year. At the same time, Medicaid accounts for more than 15 percent of all healthcare spending in the United States and plays an increasingly large role in our Nation's healthcare system. Medicaid spending accounts for roughly 1 in every 4 dollars in an average State budget.    Today, no Federal funds can be used to perform elective abortions, and yet many in the abortion industry still seek ways to use Government, taxpayer-funded resources to support their business. Some providers of elective abortions bill Medicaid and CHIP for other nonabortion-related healthcare services.    I support efforts to amend the law and give States the discretion to exclude abortion providers from receiving taxpayer funding through Medicaid. States currently have broad authority to exclude from Medicaid and CHIP providers who violate program requirements, including reasons outlined in detail in Federal statute and in State laws. Courts have also upheld the ability of a State to exclude providers suspected of fraud or who are under investigation. One of our witnesses will discuss this in more detail.    Given the factual record, some States have already taken steps to block taxpayer funding for providers, including Planned Parenthood, in light of some unconscionable atrocities, both apparent and documented, from State judicial and enforcement actions.    No State should be forced to continue to include providers in their Medicaid program who commit reprehensible acts, and taxpayers should not be forced to pay for it. The committee wants to ensure States have appropriate flexibility of excluding from their Medicaid programs providers who are suspected of serious violations of Federal law.    I look forward to hearing from our witnesses today.    [The proposed legislation appears at the conclusion of the hearing.]</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400032</t>
   </si>
   <si>
-    <t>Marsha Blackburn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Blackburn. Thank you Mr. Chairman.    Welcome to the witnesses. We are grateful that you all are here.    In 2002, the Born Alive Infants Protection Act became law. It passed the House on a voice vote. It was in response to troubling ideas that abortionists and pro-abortion activists did not regard infants as legal persons when they were born alive during an abortion. The law is explicit in definition that every infant who is born alive at any stage of development is a person for all Federal law purposes. And yet in 2015 we see evidence that some abortion providers feel that they may interpret this very clear law to suit their own purposes.    At the time the Born Alive Infants Protection Act was being debated on the floor, Senator Boxer said, and I am quoting, ``All people deserve protection, from the very tiniest infant to the most elderly among us,'' end quote. And I could not agree more.    It is clear more must be done to protect the lives of those most vulnerable. It is why I have authorized the Protecting Infants Born Alive Act, which strengthens current law by giving States the authority to exclude providers from Medicaid when they are suspected of violating the law. Furthermore, if convicted, these providers will be excluded from all Federal programs, including Medicaid, Medicare, and CHIP. It is common sense. I look forward to the support of my colleagues.    And I yield back.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>400160</t>
   </si>
   <si>
-    <t>Gene Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman.    And like our chairman, I apologize to our guests for being late, but they don't even let us set the schedule on the House floor.    Unfortunately, instead of using this time to advance legislation that improves our healthcare system, we are here in response to an aggressive smear campaign against Planned Parenthood based on highly edited videos that misrepresent the organization's practices. These two bills are transparent efforts to give politicians power to block women's access to their doctor of choice, jeopardizing the ability of millions of low-income Medicaid beneficiaries to see the provider they trust for their high-quality health care.    Federal law has long protected the ability of Medicare beneficiaries to receive family planning services. These bills fly in the face of a patient's choice and give politicians unchecked power to deny women access to the doctor of their choosing. If enacted, they would allow for unprecedented level of involvement by Government in family planning decisions of low-income women. This hearing is part of an ongoing onslaught on not just choice, but on access to quality preventative healthcare services for millions of American women.    I am deeply disappointed by the willingness of some of my colleagues to shut down the Government in response to sensational accusations and no evidence of wrongdoing. Efforts to block access to care and defund Planned Parenthood would do nothing more than prevent individuals who rely on these services from getting the care they need. More than 90 percent of what Planned Parenthood does is preventative care, including cervical, breast cancer screenings, family planning services, mostly for women with few resources and incomes below the poverty level.    We should not continue to play politics with women's health. This is real consequences for real people. Using women's health as a political football in order to advance an extreme agenda is nothing new, but this week's efforts reach a new low. We have real challenges that Congress should be spending its time addressing, rather than going after, women's health.</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>DeGette</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DeGette. Thank you very much, Mr. Chairman.    Thank you, Mr. Green.    In 2002, I voted for the Born Alive Act because obviously it is a crime to kill a baby that has been born. But this bill goes far, far beyond that, and this hearing goes far, far beyond that. The bills that we are considering today would redefine the freedom of choice of providers that is so critical to Medicaid's beneficiaries, and it would restrict a beneficiary's ability to seek care from a provider who is only suspected of having violated the provisions of the bill. This violates due process. This violates all of our justice system in this country.    Furthermore, the Democratic staff of the Oversight and Investigations Subcommittee did a complete investigation into the allegations made in these deeply altered videotapes. The conclusion was that this committee has received no evidence to substantiate the allegations that Planned Parenthood is engaged in the sale of fetal tissue for profit. It goes on to say the committee has received no evidence to support the allegations that the fetal tissue was procured without consent, that Planned Parenthood physicians altered the timing, method, or procedure of an abortion solely for the purposes of obtaining fetal tissue, and it goes on.    Mr. Chairman, I would ask unanimous consent to submit that report that we did dated September 9, 2015, into the record.</t>
   </si>
   <si>
@@ -109,9 +97,6 @@
     <t>400360</t>
   </si>
   <si>
-    <t>Janice D. Schakowsky</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Schakowsky. Thank you, Mr. Chairman.    For the past few months, Republicans have insisted on a witch hunt based entirely on highly edited, misleading videos, videos that were released by a fraudulent organization that is now facing legal problems in both State and Federal courts. And then, when their own investigation failed to produce a single shred of evidence of wrongdoing by Planned Parenthood, Republicans doubled down and introduced these incredibly harmful bills.    And don't be fooled by the claim that these bills are about protecting infants. It is clear that their true purpose is to eliminate Planned Parenthood. And whether or not you agree with abortion, it is constitutionally protected and a choice that should be only made by women and their doctors, not politicians. But because Republicans can't overturn Roe v. Wade, they try every other way possible to erode this fundamental right. They try to cut off funding to the clinics that provide abortions, criminalize doctors that perform abortions, restrict access for millions of women every year.    Let me just end with a comment by a women from Illinois: ``When I was sexually assaulted, I didn't know who to turn to for help. As the trauma I experienced during that event built up, I knew I needed to seek help, and I was encouraged to go to Planned Parenthood, and for $10 received a full health screening and help coping with my trauma.'' That is what Planned Parenthood is about.    I yield back.</t>
   </si>
   <si>
@@ -121,27 +106,18 @@
     <t>400414</t>
   </si>
   <si>
-    <t>Fred Upton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Upton. Well, thank you, Mr. Chairman.    Every human life deserves a voice, and that is why we are here today. This committee has spent the last couple of months investigating Planned Parenthood and a series of videos that raise important questions about if it or its affiliates are violating existing law. That investigation is ongoing, and we will continue to use the tools in the toolbox available to get to the facts.    In the meantime, there are steps that we can take today to help ensure that the laws, in fact, are being followed. The two bills being discussed today take important steps toward protecting infant lives and ensuring existing laws are being followed. The new vice chair, Marsha Blackburn, and Renee Ellmers have both demonstrated their leadership in authoring these bills to bolster the Born Alive Infants Protection Act and Partial-Birth Abortion Ban Act.    Today, Medicaid, as we know, pays for about half of the births in the U.S. Medicaid is also a significant portion of Planned Parenthood's revenue. And while States have some ability to enforce existing laws under Medicaid, these bills help ensure that States have more of the tools that they need to ban someone who is suspected of taking the life of an innocent baby from the State's Medicaid program.    These are commonsense measures to help ensure laws are being followed. And if healthcare providers break the law, of course they should be banned from Federal health programs. Further, if States suspect providers are violating the law, they should have the ability to ban that provider from Medicaid.    This hearing, these bills, and our ongoing investigation are about ensuring taxpayer dollars support human dignity, respect for all life, and adherence to all Federal laws.    I yield the balance of my time to my colleague from Washington State, Cathy McMorris Rodgers.</t>
   </si>
   <si>
     <t>400659</t>
   </si>
   <si>
-    <t>Cathy McMorris Rodgers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. McMorris Rodgers. Thank you, Mr. Chairman.    I want to thank the committee for their work in advancing the cause of life, for Vice Chairman Blackburn's work introducing H.R. 3494, the Protecting Infants Born Alive Act, and for Congresswoman Ellmer's work on her legislation to prevent providers acting in contravention of the partial-birth abortion ban from getting tax dollars through Medicaid.    It has now been 2 months since the first undercover video surfaced, and the public concern has not subsided. These videos challenge all of us as legislators and as human beings to reflect and to work towards better protections for women, children, and families.    Today, the President promised that he would veto a bill that says babies that survive an abortion do not deserve life-saving care. It is unthinkable to me that we live in a country where we let living, breathing babies die simply because they were born during an abortive procedure. And the President doesn't want to just not let this happen, he is actively opposing efforts to save babies that were born alive.    This is a radical, extreme departure from what I know to be right. And I am grateful for this committee's work on this important issue and for my colleagues' important work here today.    And I would like to yield to the lady from North Carolina, Mrs. Ellmers.</t>
   </si>
   <si>
     <t>412457</t>
   </si>
   <si>
-    <t>Renee L. Ellmers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Ellmers. Thank you to my colleague from Washington.    And thank you to the panel for being here today for this very important hearing.    I thank the chairman for holding this important hearing.    We are here today to talk about protecting the life of the unborn and clarifying States' ability in their Medicaid programs to work with qualified providers. The legislation I have put forward provides States with greater clarity with respect to excluding those bad actors that perform partial-birth abortions.    Democrats have argued that the bills before us today and the bills on the floor would harm women's access to health care. This is false. As a nurse, I know these bills would protect the unborn, respect taxpayers, and preserve access to health care for millions of women.    If Planned Parenthood funding is put on hold or a State takes action against a clinic, women can still access care. Federally funded qualified healthcare centers provide healthcare services for over 22 million Americans. Planned Parenthood only provides services for 2.7 million individuals, only a portion of whom are women. And the only services Planned Parenthood offers that Federally qualified health centers do not is abortion. Yet health centers provide more types of important healthcare services than Planned Parenthood does.    Today and tomorrow we are not decreasing access for women. We are talking about legislation to protect the lives of the youngest and most vulnerable among us, babies, who have no voice to speak in their own defense.    Thank you, Mr. Chairman, and I yield back the remainder of this time.</t>
   </si>
   <si>
@@ -151,27 +127,18 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman.    It is a real shame that we are here today to continue what is nothing more than a Republican assault on women's rights. I had hoped that our committee could rise above the fray, that we would not use misleading and unsubstantiated videos by antichoice extremists to attack Planned Parenthood, an organization who is responsible for providing care to millions of women across the Nation.    This concerted effort by Republicans under the guise of falsified videos is not about strengthening current law. It is about restricting access to women's health care. And if Republicans continue down this path, it will lead to a Government shutdown.    Make no mistake, Republican policies under consideration here today would roll back the clock on longstanding provider choice protections that allow a woman to see a doctor that she trusts. Their end goal is to eliminate a woman's constitutional right to choose.    These proposals will have an immediate and chilling effect on access to care. They would give States the unprecedented ability to unilaterally eliminate providers from State Medicaid programs and eliminate providers from all Federal health programs wholesale based purely on unsubstantiated allegations, and that means suspicion alone.    With the attempted efforts by States like Indiana and Louisiana, this will surely give credence to their actions, and this is not the American way. Like abortion, due process is a fundamental right.    I can't stand by and allow this committee and this Congress to support a witch hunt against Planned Parenthood, and I will not support undue, unconstitutional Government intervention into a women's personal decisions with her doctor. Republicans must end this extreme agenda to roll back the clock on women's rights.    I have, I think, about 3 minutes left, Mr. Chairman. I would like to split that between Representative Matsui and Representative Capps. So I will yield first to Representative Matsui.</t>
   </si>
   <si>
     <t>400663</t>
   </si>
   <si>
-    <t>Doris O. Matsui</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Matsui. I thank the gentleman for yielding to me.    The hearing today is looking for ways to deny low-income women and families access to health services by excluding Planned Parenthood from the Medicaid program. The termination of Medicaid funding for Planned Parenthood would create a serious deficiency in women's health providers across our country.    Medicaid serves nearly 12 million Californians, and Planned Parenthood provides services to nearly 1 million people at 117 health centers in California alone. Defunding Planned Parenthood would leave millions in California and across the country without access to essential health services. We should not allow politicians to deny a woman access to health care and to infringe upon her right to make decisions about her own body.    Even more appalling is the idea of the Government infringing upon these rights, specifically for low-income women. That is not right. Our colleagues would deny women's health and Medicaid services because they don't like Planned Parenthood. They are even threatening to shut down the Government in order to advance these extreme views.    I stand in opposition to these bills. I urge my colleagues to put aside partisan politics and refocus on efforts to expand and improve programs that our constituents rely upon.    And I yield to Representative Capps.</t>
   </si>
   <si>
     <t>400062</t>
   </si>
   <si>
-    <t>Lois Capps</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Capps. Thank you for yielding.    Mr. Chairman, I must say I am disappointed in this committee. I am disappointed that here we have worked so hard this year to find common ground and compromise for the American people. We are now succumbing to the political theater that has taken over the rest of Congress.    The legislation we are being asked to considered is supposedly in response to heavily altered, deceptive videos that try to cast a shadow over one of the Nation's most trusted women's healthcare providers. But as our colleague on the Oversight Committee has testified, that committee has not found any evidence of wrongdoing, and without any basis in reality, we are still here considering bills in search of a problem.    In my years as a nurse in the public school system, I worked so closely with teen parents whose lives and education were disrupted by an unplanned pregnancy. These young mothers and students still had such promise, but now they were faced with the difficult role of balancing their responsibilities as parents and students, often limiting their opportunities.    We know it doesn't have to be this way. Comprehensive sex education and access to a wide range of birth control options, this is what Planned Parenthood brings to our communities, and they are exactly the types of education and interventions that prevent unintended pregnancies and the need for abortion in the first place.    These bills before us would end these important services in our communities all for political gain. It is unacceptable. We need to stop being distracted and get this committee back to work on real issues facing this country.    I yield back to my colleague from New Jersey.</t>
   </si>
   <si>
@@ -181,9 +148,6 @@
     <t xml:space="preserve">    Mr. Pitts. The Chair thanks the gentleman.    As usual, all the opening statements of the members will be put into the record if you submit them in writing.    And at this point, we will go to our witnesses. Let me introduce them in the order that they will present.    First of all, thank you for coming. We appreciate you coming to present testimony today. And on our panel we have first Dr. Charmaine Yoest, president of Americans United for Life.    Welcome.    Then Mr. Casey Mattox, senior counsel for Alliance Defending Freedom. And finally Judy Waxman, an attorney.    So you will be each be given 5 minutes to summarize your testimony. Your written testimony will be part of the record. But you will be recognized for 5 minutes. And you will have a series of lights. The green will stay on for 4 minutes. And then, when the red comes on, that is the time for you to conclude.    So at this point the Chair recognizes Dr. Yoest for 5 minutes for her opening statement.</t>
   </si>
   <si>
-    <t>Yoest</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Yoest. Thank you, Chairman Pitts and members of the committee, for inviting me to testify on behalf of Americans United for Life, the legal architects of the pro-life movement.    The videos released by the Center for Medical Progress, which document senior-level Planned Parenthood staff callously discussing its practice of harvesting the organs of aborted babies in exchange for money, are deeply troubling. We have previously submitted a legal analysis of the videos to the Energy and Commerce Committee detailing six potential felonies shown on the videos.    Today, I will focus on three issues that have received less attention to date, specifically Planned Parenthood's involvement in killing infants born alive after an abortion, performing illegal partial-birth abortions, and coordinating potentially unethical and illegal organ and body part harvesting at the corporate level.    The flagrant disregard for both life and law at Planned Parenthood that the videos depict is, unfortunately, not surprising. One of AUL's primary functions is promoting meaningful legislative protections for all human life, including laws to protect infants born alive after an abortion and health and safety standards. Yet Planned Parenthood regularly and publicly fights against these commonsense laws.    The videos provide insight into why Planned Parenthood desperately fights against lawful standards, even protections for babies born alive, like it recently did in Colorado. In one Colorado video, Dr. Savita Ginde, who is the vice president and medical director of Planned Parenthood of the Rocky Mountains, remarked, quote, ``If someone delivers before we get to see them for a procedure, then they are intact. But that is not what we go for.''    The videos raise credible concern that babies are regularly surviving an abortion, providing probable cause for investigating possible violations of the Federal Born Alive Infant Protections Act. Multiple people throughout the videos refer to the delivery of an intact specimen. For most of us, that is a baby, begging the question, Was that child born alive?    In multiple instances throughout the videos, that appears to be true. For example, Dr. Ben Van Handel, executive director of Novogenix Laboratories, notes: ``There are times when after the [abortion] Procedure is done that the heart is actually still beating.'' Cate Dyer, CEO of StemExpress, says intact babies are common. Quote: ``If you had intact cases, which we have done a lot, we sometimes ship those back to our lab in its entirety.''    The videos also provide probable cause to investigate whether Planned Parenthood violates the Federal prohibition of partial-birth abortion in order to harvest more usable baby organs. It is important to note that Planned Parenthood actively opposed the Federal ban on partial-birth abortion and unsuccessfully tried to have it struck down in the courts.    Even so, Dr. Deborah Nucatola, who is the senior medical director of corporate Planned Parenthood, defiantly dismisses the Federal law, describing it as, quote, ``up to interpretation,'' end quote, for abortionists like herself. Consider her description about, quote, ``steps that can be taken to try to ensure,'' end quote, procurement of brain tissue. The abortion process she describes, deliberately changing the baby to breach presentation, has a very troubling similarity to the description of the illegal partial-birth abortion procedure.    And finally, the videos document a nationwide network of affiliates in close communication with and endorsement from the corporate headquarters of Planned Parenthood. As an organization, Planned Parenthood's enterprise liability is illustrated by the knowledge and complicity of its senior-level staff who set and direct policy. Dr. Nucatola stated multiple times that the legal department at Planned Parenthood was well aware of the harvesting and selling of infant body parts by affiliates but advised against issuing written national guidelines regarding the practice. Dr. Ginde made similar statements.    In fact, as this chart demonstrates, the undercover videos show that the scandal is extensive and reaches the highest levels of Planned Parenthood.</t>
   </si>
   <si>
@@ -193,18 +157,12 @@
     <t xml:space="preserve">    Mr. Pitts. The Chair thanks the gentlelady and now recognizes Mr. Casey Mattox, 5 minutes for your opening statement.</t>
   </si>
   <si>
-    <t>Mattox</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mattox. Mr. Chairman and members of the committee, thank you for the opportunity to speak to you today.    Planned Parenthood benefits substantially from Medicaid. Despite providing only a limited selection of medical services, it annually receives over a half-billion taxpayer dollars. Over the last decade, Planned Parenthood's own annual reports indicate it has almost doubled its tax revenues, and it has reported $765 million in what it calls excess revenue, $127 million of that last year alone.    During the same time period, Planned Parenthood has reduced its cancer screenings by half and increased the number of abortions it performs even as the national abortion rate has declined, giving it a 40 percent market share, as Planned Parenthood's senior medical director, Deborah Nucatola, bragged in the first CMP video.    Planned Parenthood receives taxpayer dollars in many ways, but principally from Medicaid. Yet Planned Parenthood is unlike many other providers, not only because of its profits, but also because it has also been able to resist much of the corrective action that other Medicaid providers with its track record would expect. And unlike other Medicaid providers, Planned Parenthood has spent millions of dollars in recent elections supporting its preferred candidates. Planned Parenthood has a long history of actions that would have jeopardized its State Medicaid contracts were it any other provider.    The States regulate medicine, and the States supply their own tax dollars to Medicaid. Thus Congress did not create one Medicaid program. It created 50. States are free to craft their own programs to best serve their own citizens' needs, choosing which providers they will entrust with taxpayer dollars. The Medicaid Act itself and its legislative history affirm that States have broader authority than even the Federal Government to exclude providers from their Medicaid programs, and the courts have agreed.    Thus, over the last two decades, over 9,000 of the now 554,000 Medicaid providers in this country have been disqualified from State Medicaid programs. Those decisions are usually uncontroversial, but recent actions by the Federal Government to protect Planned Parenthood have undermined that Federal-State balance. When States choose not to contract with abortionists and their Medicaid programs, reasonably concerned that taxpayer dollars would subsidize those abortions, the administration issued a new interpretation of the Medicaid statute that purports to deny them the right to administer their State Medicaid program.    Recently, after several States terminated contracts with Planned Parenthood specifically, the administration expanded that interpretation, claiming that those States lacked the right to exclude individual providers suspected of violating the law, at least where Planned Parenthood is concerned. This despite the fact that each State has hundreds of other low-cost healthcare options for the few Planned Parenthood clinics' limited service.    The administration's actions are robbing the States of control over their own State Medicaid programs to protect a politically powerful but ethically and legally challenged organization. Congress can restore the proper balance, allowing States to determine which providers they trust with taxpayer dollars.    Any other Medicaid provider subject to multiple whistleblower lawsuits by former employees alleging tens of millions of dollars in waste, abuse, and potential fraud, which paid $4.3 million after being accused of submitting false claims by the Obama administration Department of Justice, which has been specifically identified as the source of over $8 million in Medicaid overpayments by Government audits, including submitting claims for abortion-related services, any other provider like that would not be surprised to have its Medicaid billing privileges suspended or even terminated.    Any other Medicaid provider caught having failed to report sexual abuse of minors at least a dozen times, including most recently a 14-year-old girl in Mobile, Alabama, who was returned twice, after two abortions in Mobile, returned twice to her abuser without reporting that information to authorities, any other Medicaid provider in that position would be surprised to only have their Medicaid privileges terminated.    Any other Medicaid provider that was paid by a for-profit company, StemExpress, for baby body parts where that company has claimed in writing to provide ``financial profits,'' quote, and ``fiscal rewards'' to abortion clinics in marketing materials bearing the endorsement of that Medicaid provider whose CEO acknowledged to Congress--we are not talking about the videos--acknowledged to Congress that it had received $60 per baby body part and could provide no evidence that actually connected those payments with any actual expenses that Planned Parenthood experienced, whose top-level management has been captured on hours of videos negotiating prices for those organs and the alteration of abortion methods against the mother's knowledge to obtain those organs for sale would rightfully expect that its Medicaid contract would be in jeopardy.    But Planned Parenthood is not any other Medicaid provider. It is a politically powerful organization that spends substantial sums from its sizeable excess revenues to maintain its funding and its political power, and Planned Parenthood is being protected by this administration.    Congress can reaffirm that the States have the authority to govern their own State Medicaid programs and make decisions that are in the interest of their citizens, even where Planned Parenthood is concerned.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Pitts. The Chair thanks the gentleman and now recognizes Ms. Waxman, 5 minutes for your opening statement.</t>
   </si>
   <si>
-    <t>Waxman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Waxman. Thank you for the opportunity to testify here today.    I have two points to make today. One, the two bills at issue here today clearly, as you heard already, have a single purpose, and that is to make it easier for State officials to target Planned Parenthood and other women's health providers.    The Medicaid program is rooted in due process protections for both patients and for providers. These bills are not. The two bills would amend Medicaid to allow State officials to exclude a provider from the program if they or one of their employees is simply suspected of violating either of the laws we are discussing today. The standard is unduly vague, and as Congressman Pallone said, it is not the American way.    Two, Planned Parenthood is, in fact, a respected, high-quality provider that provides essential healthcare services for millions of women nationwide. The Medicaid funds that they receive are reimbursement, and I will say even low reimbursement, directly for the services that they are providing these women--family planning services, breast screening, STD screening, et cetera. And by giving States carte blanche to exclude these providers from Medicaid based on a politician's suspicion only, these bills will definitely put the health of millions of women at risk.    The bills before the committee today go dangerously beyond what the law currently provides. Based on a hunch or a rumor, all services the provider offers to Medicaid patients could totally evaporate. There would be no due process or any process at all for determining whether an accusation is true. The bills give unlimited power to exclude a provider without so much as an investigation, evidence to support the accusation, a hearing, court proceedings, an opportunity for the entity to defend itself, or appeal.    The result of giving the States this unlimited power would be that they would be free to wreak havoc on programs that advance women's health, and healthcare services for millions of women, particularly low-income women, around the country would be at risk.    Yesterday's Census Bureau report found that in 2014, fully 20 percent of all women and girls in this country received Medicaid to cover their healthcare services, which explains why Medicaid is so important to women throughout their lives. And because reimbursement rates for Medicaid is generally lower than other payers, there are just not always that many Medicaid providers available.    The role that Planned Parenthood plays is to provide critical, essential care, and that role cannot be overstated. If Planned Parenthood were not available to Medicaid patients, unfortunately, unintended pregnancies and the number of abortions would increase dramatically. As the Guttmacher Institute found, in two-thirds of the almost 500 counties in which Planned Parenthoods are located, they serve at least half of all the women obtaining contraceptive care from safety net health providers. And in many communities, Planned Parenthood is, in fact, the sole safety net provider.    So what would happen if Planned Parenthood was defunded. Well, let's take Texas for example. In recent years, Texas decided to get out of the Medicaid program for family planning services so they could cut Planned Parenthood out of their networks, and as a result other clinics could not handle the deluge of new patients. In Hidalgo County alone, community health centers said they would require a 500 percent increase in capacity for women's health, something they simply could not do. Medicaid claims dropped 26 percent and contraceptive claims dropped 54 percent. That tells me women were not getting care.    Two other programs are cited as having the ability to fill the gap, Title X and community health centers. And while Title X offers critical services to women who need family planning services, it is already woefully underfunded and under severe attack. In fact, the House Appropriations Committee voted just this summer to totally defund this program.    As for community health centers, let's be realistic. CHCs have grown nationwide since the passage of the Affordable Care Act, but they can't handle the patients they have now already, which, in fact, is a good thing. Many more people have insurance. But according to their own accounts, for every patient served at a CHC, nearly three go without access to primary healthcare services. And while some private doctors of course do see Medicaid patients, there will be enough of them, unfortunately, to fill the gap.    These bills give States an unprecedented ability to deny Medicaid enrollees from getting the healthcare services they need from their trusted healthcare provider. It is the women, and particularly the low-income women, that will be the losers if these bills are enacted. Thank you.</t>
   </si>
   <si>
@@ -217,9 +175,6 @@
     <t>412195</t>
   </si>
   <si>
-    <t>Kathy Castor</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Castor. Mr. Chairman, I have to object to this. You don't have any context for this. What we understand from all of the investigations is that these are manufactured videos, highly edited, selective. And I would object and say you need to run these by the minority so that we can provide some context.</t>
   </si>
   <si>
@@ -229,9 +184,6 @@
     <t>400616</t>
   </si>
   <si>
-    <t>G. K. Butterfield</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Butterfield. Mr. Chairman, point of order.</t>
   </si>
   <si>
@@ -325,9 +277,6 @@
     <t>400285</t>
   </si>
   <si>
-    <t>Tim Murphy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Murphy. I thank the chairman for yielding so I can offer some clarification here, because I feel obligated to take this time, speaking as chairman of the committee's Oversight and Investigations Subcommittee, to address the remarks made by my colleague, the gentlelady from Colorado, regarding the status of the subcommittee's investigation.    Statements have been made to indicate the investigation is complete. It is not. The investigation we are conducting with invitations extended to our Democrat colleagues for every meeting is far from complete. In fact, the Oversight and Investigations Subcommittee is in the preliminary stages--preliminary stages--of its investigation into the practice of procuring and selling the tissue and parts from babies who have been aborted. A few witnesses have been interviewed, and many have not. Some documents have been obtained. Others will be sought and reviewed, and these will be shared.    The videotapes of these practices put very important issues into the public domain. It is our shared responsibility to collect the facts and present sound information to the American people. It is premature to draw any conclusions to this ongoing investigation. It is going to take a thorough investigation to get to the bottom of this practice, and at this point we simply cannot conclude that there has been no wrongdoing.    I yield back.</t>
   </si>
   <si>
@@ -448,9 +397,6 @@
     <t>400018</t>
   </si>
   <si>
-    <t>Joe Barton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barton. Thank you, Mr. Chairman. I was going to make a brief opening statement, which I didn't get to, so let me just summarize before I ask my questions.    My lifetime voting record on pro-life issues is right at 100 percent. I consider myself to be a pro-life Congressman. I think every life is precious. I think the Congress should do everything that we can to protect that life. I do recognize Roe v. Wade is the law of the land, and under that court ruling, I recognize a woman's right under legal conditions to choose to have an abortion.    That is not what this debate is about. This debate is about a procedure that Planned Parenthood utilizes to take body parts and sell. That, I don't think, is in contention. I don't think there is any dispute that this practice is occurring. The question before the committee and to some extent the Congress, should we allow that practice or should we stop that practice? And if Planned Parenthood is the practitioner of that practice, should we stop funding Planned Parenthood because they continue to utilize it? That is the question.    With that, I want to ask Dr. Yoest, does Planned Parenthood provide any service that other women's health organizations could not provide?</t>
   </si>
   <si>
@@ -577,9 +523,6 @@
     <t>412278</t>
   </si>
   <si>
-    <t>Brett Guthrie</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you, Mr. Chairman.    I want to begin by saying how I am disgusted with the videos that we saw. And I know every time it comes up, people are saying: Oh, if you see them on TV, or wherever, they are highly edited and they are out of context.    But as Mr. Barton asked and we found out, that nobody is debating the quotes that are in there. I mean, we need to look at the whole video, I agree with that. Nobody is debating the quotes. And those quotes, I am not sure you can take those out of context. I am not sure what context those are acceptable. And I am sorry just to hear that.    First, I want to ask Mr. Mattox. In your testimony you say the courts have upheld the rights of a State to exclude, quote, ``an entity from its Medicaid program for any reason established by law,'' unquote. Can you elaborate on that?</t>
   </si>
   <si>
@@ -640,9 +583,6 @@
     <t>400373</t>
   </si>
   <si>
-    <t>John Shimkus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shimkus. I thank my colleague.    And these are difficult issues, and I think, as I told some of the folks on the panel, those of us who are pro-life and vote that way who have served many, many years, we are saddened that these things still occur in our country.    On Tuesday, I did a press conference tour of my district outside three Planned Parenthood clinics. Tuesday. One was closed, wasn't even open. So I want to talk about the access to care issue a little bit.    But before I do this, some of this moral outrage, and one of the benefits of being a MSember for a long time is you have the benefit of history. And we had a hearing when Republicans were in the minority on secret videos taken in a meatpacking plant. Downed cows. There was more outrage over the treatment of downed cows than we have of treatment of downed kids, babies. And there was no objection to the videos being presented. In fact, they didn't even call the video people to the hearing. It is just unfortunate that, again, I do think there is a double standard.    And also I want to mention the healthcare aspects. The other thing I did in Illinois, why I went to them is because federally qualified healthcare clinics in Illinois, we have 670 better alternatives for women's health care and only 18 Planned Parenthood locations. So this debate about our ability to affect women's health care, in fact, by these bills that we are going to move through the House, we are going to be able to provide better care because Planned Parenthood clinics don't provide all the range of health care.    I am not a supporter of the Affordable Care Act, I didn't vote for it, I don't believe in it, I think it was terrible, but the premise of the Affordable Care Act was medical homes for people could go to have a medical home and a medical location for records. Guess where your medical home is? It is not in a Planned Parenthood clinic. Your medical home is found in a federally qualified healthcare clinic.    So we are on the right track if we move this debate to improving access to health care, expanding federally qualified healthcare clinics, rural clinics, in my case. I am in southern Illinois, three Planned Parenthood versus 40 accesses to rural care or community health clinics.    Mr. Mattox, the question I have, going back to the videos, do you believe these videos actually depict Planned Parenthood's practices?</t>
   </si>
   <si>
@@ -721,9 +661,6 @@
     <t>400052</t>
   </si>
   <si>
-    <t>Michael C. Burgess</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Burgess. Thank you, Mr. Chairman. Mr. Chairman, you began your questioning by showing us three film clips, and in that third film clip where the discussion was ``you crush above, you crush below, and you get the part that you want in between,'' and this was all done under sonographic guidance, I would just ask, Mr. Chairman, I do want the committee, the subcommittee, to make an effort to retrieve any ultrasound electronic media that may have been created during the performance of these procedures because I believe it could be instructive to the subcommittee to actually have that.    Dr. Yoest, let me just ask you. Is your organization affiliated with the Texas--is there a Texas organization that is an adjunct of yours? Texas Alliance for Life, is that associated with you?</t>
   </si>
   <si>
@@ -757,9 +694,6 @@
     <t>412543</t>
   </si>
   <si>
-    <t>Joseph P. Kennedy III</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kennedy. Thank you, Mr. Chairman.    Dr. Yoest, did you use the videos that were shown earlier at this hearing as part of your investigation?</t>
   </si>
   <si>
@@ -895,9 +829,6 @@
     <t>412290</t>
   </si>
   <si>
-    <t>Leonard Lance</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lance. Thank you, Mr. Chairman.    Mr. Mattox, you stated in your testimony that you explained how CMS issued a new set of interpretations based upon the existing statute. The new interpretation was in 2011 related to States' use of qualified medical providers. Could you explain in a little more detail what CMS did and your reviews on what CMS did in 2011 based upon an underlying statute that predates 2011?</t>
   </si>
   <si>
@@ -973,9 +904,6 @@
     <t xml:space="preserve">    Mr. Pitts. The Chair thanks the gentleman.    Now recognize the gentleman from California, Mr. Cardenas, 5 minutes for questions.</t>
   </si>
   <si>
-    <t>Cardenas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cardenas. Thank you very much, Mr. Chairman.    Witnesses, I only have a short period of time, so I would appreciate yes-or-no answers to my questions.    Congress is remarkably transparent. You can see the cameras filming us right now, and you can watch us on C-SPAN when you get home or any time you would like you can bring it up. You don't even have to have a hidden camera here. We are very transparent.    That having been said, I have a question first to Dr. Yoest. Have you seen any pro-life organizations who have created similarly manipulated videos showing this Government making cuts in prenatal care funding? Yes or no? Have you seen any videos like that?</t>
   </si>
   <si>
@@ -1060,9 +988,6 @@
     <t>412485</t>
   </si>
   <si>
-    <t>H. Morgan Griffith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Griffith. Dr. Yoest, you wanted to respond briefly. Please do so.</t>
   </si>
   <si>
@@ -1096,9 +1021,6 @@
     <t>412250</t>
   </si>
   <si>
-    <t>Gus M. Bilirakis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bilirakis. Thank you, Mr. Chairman. I appreciate you holding this hearing. Very important hearing.    Mr. Mattox, in your testimony you mentioned that Planned Parenthood has had great financial success in Medicaid. Unlike other Medicaid providers, they have been able to avoid some of the oversight and corrective actions that most Medicaid providers would expect. Can you elaborate on what they have been doing, and maybe what they have been getting away with all these years?</t>
   </si>
   <si>
@@ -1126,9 +1048,6 @@
     <t>412445</t>
   </si>
   <si>
-    <t>Billy Long</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Long. Thank you, Mr. Chairman.    And thank you all for being here today.    Ms. Waxman, have you watched any of these videos, edited, unedited, whatever you want to call them, but the recent videos that have come out----</t>
   </si>
   <si>
@@ -1289,9 +1208,6 @@
   </si>
   <si>
     <t>412427</t>
-  </si>
-  <si>
-    <t>Larry Bucshon</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Bucshon. Thank you, Mr. Chairman.    I just want to say, I am a physician who has operated on premature babies as young as 23 weeks gestation. In fact, the smallest baby I operated on in my practice weighed only 650 grams. I did a specific operation call a patent ductus ligation of premature babies. And so I find the discussion, the callousness of the discussion, particularly appalling in the videos based on that, as well as the fact that I am a father of four and a pro-life person.    But also as a physician, I take access to health care very seriously, and it is very important to me. And that is why I think it is such a ridiculous argument that the minority makes that Republicans in some way want to limit access to health care for women. That is a debunked argument. It has failed politically and it has failed factually many, many times. But they continue to make it because that is the only thing they have.    So with that, I want to also outline some statistics on Planned Parenthood about access to health care. And this is their own data. They treat just 2 percent of the Nation's women for any reason, 2 percent. Ninety-eight percent of women get their health care other places other than Planned Parenthood.    They also don't offer women some basic primary care. Mammograms were just mentioned. But, Ms. Waxman, does Planned Parenthood perform mammograms?</t>
@@ -1777,11 +1693,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1803,11 +1717,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1827,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1855,11 +1765,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1879,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1905,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1933,11 +1837,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1957,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1985,11 +1885,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2009,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2035,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2061,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2089,11 +1981,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2113,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2139,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2165,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2193,11 +2077,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2217,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2243,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" t="s">
-        <v>48</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2269,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" t="s">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2295,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2323,11 +2197,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2347,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2373,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2401,11 +2269,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2425,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2453,11 +2317,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2477,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2505,11 +2365,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2531,11 +2389,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2555,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" t="s">
-        <v>67</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2583,11 +2437,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2607,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G34" t="s">
-        <v>71</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2635,11 +2485,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2659,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36" t="s">
-        <v>71</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2687,11 +2533,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2711,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38" t="s">
-        <v>71</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2739,11 +2581,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2763,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
-      </c>
-      <c r="G40" t="s">
-        <v>71</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2791,11 +2629,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2817,11 +2653,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2841,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2869,11 +2701,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2893,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2919,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2945,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2971,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2997,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3023,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3049,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3075,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3101,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3127,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3153,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3181,11 +2989,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3205,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
-      </c>
-      <c r="G57" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3233,11 +3037,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3257,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
-      </c>
-      <c r="G59" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3285,11 +3085,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3309,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3337,11 +3133,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3361,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
-      </c>
-      <c r="G63" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3387,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>102</v>
-      </c>
-      <c r="G64" t="s">
-        <v>103</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3415,11 +3205,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3439,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
-      </c>
-      <c r="G66" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3467,11 +3253,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3491,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>44</v>
-      </c>
-      <c r="G68" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3517,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3543,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>44</v>
-      </c>
-      <c r="G70" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3569,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3595,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>44</v>
-      </c>
-      <c r="G72" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3621,13 +3395,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3647,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
-      </c>
-      <c r="G74" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3673,13 +3443,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3699,13 +3467,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
-      </c>
-      <c r="G76" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3725,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3751,13 +3515,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>44</v>
-      </c>
-      <c r="G78" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3777,13 +3539,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3803,13 +3563,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>44</v>
-      </c>
-      <c r="G80" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3829,13 +3587,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3855,13 +3611,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>44</v>
-      </c>
-      <c r="G82" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3881,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3909,11 +3661,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3933,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3959,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3985,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
-      </c>
-      <c r="G87" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4011,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4037,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4063,13 +3803,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4089,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4115,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4141,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4169,11 +3901,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4193,13 +3923,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>50</v>
-      </c>
-      <c r="G95" t="s">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4219,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4245,13 +3971,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>50</v>
-      </c>
-      <c r="G97" t="s">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4271,13 +3995,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>24</v>
-      </c>
-      <c r="G98" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4297,13 +4019,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>50</v>
-      </c>
-      <c r="G99" t="s">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4323,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
-      </c>
-      <c r="G100" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4349,13 +4067,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>50</v>
-      </c>
-      <c r="G101" t="s">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4377,11 +4093,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4401,13 +4115,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>143</v>
-      </c>
-      <c r="G103" t="s">
-        <v>144</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4427,13 +4139,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>24</v>
-      </c>
-      <c r="G104" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4453,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>143</v>
-      </c>
-      <c r="G105" t="s">
-        <v>144</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4479,13 +4187,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>24</v>
-      </c>
-      <c r="G106" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4505,13 +4211,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>143</v>
-      </c>
-      <c r="G107" t="s">
-        <v>144</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4531,13 +4235,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>24</v>
-      </c>
-      <c r="G108" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4557,13 +4259,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>143</v>
-      </c>
-      <c r="G109" t="s">
-        <v>144</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4583,13 +4283,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>24</v>
-      </c>
-      <c r="G110" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4609,13 +4307,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>143</v>
-      </c>
-      <c r="G111" t="s">
-        <v>144</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4635,13 +4331,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
-      </c>
-      <c r="G112" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4661,13 +4355,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>143</v>
-      </c>
-      <c r="G113" t="s">
-        <v>144</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4687,13 +4379,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>24</v>
-      </c>
-      <c r="G114" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4713,13 +4403,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>143</v>
-      </c>
-      <c r="G115" t="s">
-        <v>144</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4739,13 +4427,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>24</v>
-      </c>
-      <c r="G116" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4765,13 +4451,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>143</v>
-      </c>
-      <c r="G117" t="s">
-        <v>144</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4791,13 +4475,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>24</v>
-      </c>
-      <c r="G118" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4817,13 +4499,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
+        <v>126</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
         <v>143</v>
-      </c>
-      <c r="G119" t="s">
-        <v>144</v>
-      </c>
-      <c r="H119" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4843,13 +4523,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>24</v>
-      </c>
-      <c r="G120" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4869,13 +4547,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>143</v>
-      </c>
-      <c r="G121" t="s">
-        <v>144</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4895,13 +4571,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>24</v>
-      </c>
-      <c r="G122" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4921,13 +4595,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>143</v>
-      </c>
-      <c r="G123" t="s">
-        <v>144</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4947,13 +4619,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>19</v>
-      </c>
-      <c r="G124" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4973,13 +4643,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>143</v>
-      </c>
-      <c r="G125" t="s">
-        <v>144</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4999,13 +4667,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>19</v>
-      </c>
-      <c r="G126" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5025,13 +4691,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>143</v>
-      </c>
-      <c r="G127" t="s">
-        <v>144</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5051,13 +4715,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5077,13 +4739,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>143</v>
-      </c>
-      <c r="G129" t="s">
-        <v>144</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5105,11 +4765,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5129,13 +4787,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
-      </c>
-      <c r="G131" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5155,13 +4811,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>24</v>
-      </c>
-      <c r="G132" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5181,13 +4835,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
-      </c>
-      <c r="G133" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5207,13 +4859,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>24</v>
-      </c>
-      <c r="G134" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5233,13 +4883,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
-      </c>
-      <c r="G135" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5259,13 +4907,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>24</v>
-      </c>
-      <c r="G136" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5285,13 +4931,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
-      </c>
-      <c r="G137" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5311,13 +4955,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>24</v>
-      </c>
-      <c r="G138" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5337,13 +4979,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
-      </c>
-      <c r="G139" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5363,13 +5003,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>24</v>
-      </c>
-      <c r="G140" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5389,13 +5027,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
-      </c>
-      <c r="G141" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5417,11 +5053,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5443,11 +5077,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5467,13 +5099,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>186</v>
-      </c>
-      <c r="G144" t="s">
-        <v>187</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5493,13 +5123,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>24</v>
-      </c>
-      <c r="G145" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5519,13 +5147,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>186</v>
-      </c>
-      <c r="G146" t="s">
-        <v>187</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5545,13 +5171,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>24</v>
-      </c>
-      <c r="G147" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5571,13 +5195,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>186</v>
-      </c>
-      <c r="G148" t="s">
-        <v>187</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5597,13 +5219,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>24</v>
-      </c>
-      <c r="G149" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5623,13 +5243,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>186</v>
-      </c>
-      <c r="G150" t="s">
-        <v>187</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5649,13 +5267,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>24</v>
-      </c>
-      <c r="G151" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5675,13 +5291,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>186</v>
-      </c>
-      <c r="G152" t="s">
-        <v>187</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5701,13 +5315,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>24</v>
-      </c>
-      <c r="G153" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5727,13 +5339,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>186</v>
-      </c>
-      <c r="G154" t="s">
-        <v>187</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5755,11 +5365,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5779,13 +5387,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>66</v>
-      </c>
-      <c r="G156" t="s">
-        <v>67</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5805,13 +5411,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>19</v>
-      </c>
-      <c r="G157" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5831,13 +5435,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>66</v>
-      </c>
-      <c r="G158" t="s">
-        <v>67</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5859,11 +5461,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5883,13 +5483,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>19</v>
-      </c>
-      <c r="G160" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5911,11 +5509,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5935,13 +5531,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>102</v>
-      </c>
-      <c r="G162" t="s">
-        <v>103</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5961,13 +5555,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>207</v>
-      </c>
-      <c r="G163" t="s">
-        <v>208</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5987,13 +5579,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>24</v>
-      </c>
-      <c r="G164" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6013,13 +5603,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>207</v>
-      </c>
-      <c r="G165" t="s">
-        <v>208</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6039,13 +5627,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>24</v>
-      </c>
-      <c r="G166" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6065,13 +5651,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>207</v>
-      </c>
-      <c r="G167" t="s">
-        <v>208</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6093,11 +5677,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6117,13 +5699,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>207</v>
-      </c>
-      <c r="G169" t="s">
-        <v>208</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6145,11 +5725,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>12</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6169,13 +5747,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>47</v>
-      </c>
-      <c r="G171" t="s">
-        <v>48</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6195,13 +5771,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>24</v>
-      </c>
-      <c r="G172" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6221,13 +5795,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>47</v>
-      </c>
-      <c r="G173" t="s">
-        <v>48</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6247,13 +5819,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>24</v>
-      </c>
-      <c r="G174" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6273,13 +5843,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>47</v>
-      </c>
-      <c r="G175" t="s">
-        <v>48</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6299,13 +5867,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>24</v>
-      </c>
-      <c r="G176" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6325,13 +5891,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>47</v>
-      </c>
-      <c r="G177" t="s">
-        <v>48</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6351,13 +5915,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>24</v>
-      </c>
-      <c r="G178" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6377,13 +5939,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>47</v>
-      </c>
-      <c r="G179" t="s">
-        <v>48</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6403,13 +5963,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>24</v>
-      </c>
-      <c r="G180" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6429,13 +5987,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>47</v>
-      </c>
-      <c r="G181" t="s">
-        <v>48</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6455,13 +6011,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>24</v>
-      </c>
-      <c r="G182" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6481,13 +6035,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>47</v>
-      </c>
-      <c r="G183" t="s">
-        <v>48</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6507,13 +6059,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>24</v>
-      </c>
-      <c r="G184" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6533,13 +6083,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>47</v>
-      </c>
-      <c r="G185" t="s">
-        <v>48</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6559,13 +6107,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>24</v>
-      </c>
-      <c r="G186" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6585,13 +6131,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>47</v>
-      </c>
-      <c r="G187" t="s">
-        <v>48</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6613,11 +6157,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>12</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6637,13 +6179,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>234</v>
-      </c>
-      <c r="G189" t="s">
-        <v>235</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6663,13 +6203,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>24</v>
-      </c>
-      <c r="G190" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6689,13 +6227,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>234</v>
-      </c>
-      <c r="G191" t="s">
-        <v>235</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6717,11 +6253,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>12</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6741,13 +6275,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>234</v>
-      </c>
-      <c r="G193" t="s">
-        <v>235</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6767,13 +6299,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>24</v>
-      </c>
-      <c r="G194" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6793,13 +6323,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>234</v>
-      </c>
-      <c r="G195" t="s">
-        <v>235</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6819,13 +6347,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>24</v>
-      </c>
-      <c r="G196" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6845,13 +6371,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>234</v>
-      </c>
-      <c r="G197" t="s">
-        <v>235</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6871,13 +6395,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>24</v>
-      </c>
-      <c r="G198" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6897,13 +6419,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>234</v>
-      </c>
-      <c r="G199" t="s">
-        <v>235</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6925,11 +6445,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>12</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6949,13 +6467,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>246</v>
-      </c>
-      <c r="G201" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6975,13 +6491,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>24</v>
-      </c>
-      <c r="G202" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7001,13 +6515,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>246</v>
-      </c>
-      <c r="G203" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7027,13 +6539,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>24</v>
-      </c>
-      <c r="G204" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7053,13 +6563,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>246</v>
-      </c>
-      <c r="G205" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7079,13 +6587,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>24</v>
-      </c>
-      <c r="G206" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7105,13 +6611,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>246</v>
-      </c>
-      <c r="G207" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7131,13 +6635,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>24</v>
-      </c>
-      <c r="G208" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7157,13 +6659,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>246</v>
-      </c>
-      <c r="G209" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7183,13 +6683,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>24</v>
-      </c>
-      <c r="G210" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7209,13 +6707,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>246</v>
-      </c>
-      <c r="G211" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7235,13 +6731,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>24</v>
-      </c>
-      <c r="G212" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7261,13 +6755,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>246</v>
-      </c>
-      <c r="G213" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7287,13 +6779,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>24</v>
-      </c>
-      <c r="G214" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7313,13 +6803,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>246</v>
-      </c>
-      <c r="G215" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7339,13 +6827,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>24</v>
-      </c>
-      <c r="G216" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7365,13 +6851,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>246</v>
-      </c>
-      <c r="G217" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7391,13 +6875,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>24</v>
-      </c>
-      <c r="G218" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7417,13 +6899,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>246</v>
-      </c>
-      <c r="G219" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7443,13 +6923,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>24</v>
-      </c>
-      <c r="G220" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7469,13 +6947,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
+        <v>225</v>
+      </c>
+      <c r="G221" t="s"/>
+      <c r="H221" t="s">
         <v>246</v>
-      </c>
-      <c r="G221" t="s">
-        <v>247</v>
-      </c>
-      <c r="H221" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7495,13 +6971,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>24</v>
-      </c>
-      <c r="G222" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7521,13 +6995,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>246</v>
-      </c>
-      <c r="G223" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7547,13 +7019,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>24</v>
-      </c>
-      <c r="G224" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7573,13 +7043,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>246</v>
-      </c>
-      <c r="G225" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7599,13 +7067,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>24</v>
-      </c>
-      <c r="G226" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7625,13 +7091,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>246</v>
-      </c>
-      <c r="G227" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7651,13 +7115,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>24</v>
-      </c>
-      <c r="G228" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7677,13 +7139,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>246</v>
-      </c>
-      <c r="G229" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7703,13 +7163,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>24</v>
-      </c>
-      <c r="G230" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7729,13 +7187,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>246</v>
-      </c>
-      <c r="G231" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7757,11 +7213,9 @@
       <c r="F232" t="s">
         <v>11</v>
       </c>
-      <c r="G232" t="s">
-        <v>12</v>
-      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7781,13 +7235,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>246</v>
-      </c>
-      <c r="G233" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7807,13 +7259,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>24</v>
-      </c>
-      <c r="G234" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7833,13 +7283,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>246</v>
-      </c>
-      <c r="G235" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7859,13 +7307,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>24</v>
-      </c>
-      <c r="G236" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7885,13 +7331,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>246</v>
-      </c>
-      <c r="G237" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7911,13 +7355,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>24</v>
-      </c>
-      <c r="G238" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7937,13 +7379,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>246</v>
-      </c>
-      <c r="G239" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7963,13 +7403,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>24</v>
-      </c>
-      <c r="G240" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7989,13 +7427,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>246</v>
-      </c>
-      <c r="G241" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8015,13 +7451,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>24</v>
-      </c>
-      <c r="G242" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8041,13 +7475,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>246</v>
-      </c>
-      <c r="G243" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8067,13 +7499,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>24</v>
-      </c>
-      <c r="G244" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8093,13 +7523,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>246</v>
-      </c>
-      <c r="G245" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8121,11 +7549,9 @@
       <c r="F246" t="s">
         <v>11</v>
       </c>
-      <c r="G246" t="s">
-        <v>12</v>
-      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8145,13 +7571,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>292</v>
-      </c>
-      <c r="G247" t="s">
-        <v>293</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8171,13 +7595,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>24</v>
-      </c>
-      <c r="G248" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8197,13 +7619,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>292</v>
-      </c>
-      <c r="G249" t="s">
-        <v>293</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8223,13 +7643,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>24</v>
-      </c>
-      <c r="G250" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8249,13 +7667,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>292</v>
-      </c>
-      <c r="G251" t="s">
-        <v>293</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8275,13 +7691,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>24</v>
-      </c>
-      <c r="G252" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8301,13 +7715,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>24</v>
-      </c>
-      <c r="G253" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8327,13 +7739,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>292</v>
-      </c>
-      <c r="G254" t="s">
-        <v>293</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8353,13 +7763,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>24</v>
-      </c>
-      <c r="G255" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8379,13 +7787,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>292</v>
-      </c>
-      <c r="G256" t="s">
-        <v>293</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8405,13 +7811,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>24</v>
-      </c>
-      <c r="G257" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8431,13 +7835,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>292</v>
-      </c>
-      <c r="G258" t="s">
-        <v>293</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8457,13 +7859,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>24</v>
-      </c>
-      <c r="G259" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8483,13 +7883,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>292</v>
-      </c>
-      <c r="G260" t="s">
-        <v>293</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8509,13 +7907,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>24</v>
-      </c>
-      <c r="G261" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8535,13 +7931,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>292</v>
-      </c>
-      <c r="G262" t="s">
-        <v>293</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8561,13 +7955,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>24</v>
-      </c>
-      <c r="G263" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8587,13 +7979,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>292</v>
-      </c>
-      <c r="G264" t="s">
-        <v>293</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8613,13 +8003,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>24</v>
-      </c>
-      <c r="G265" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8639,13 +8027,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>292</v>
-      </c>
-      <c r="G266" t="s">
-        <v>293</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8665,13 +8051,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>24</v>
-      </c>
-      <c r="G267" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8691,13 +8075,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
+        <v>270</v>
+      </c>
+      <c r="G268" t="s"/>
+      <c r="H268" t="s">
         <v>292</v>
-      </c>
-      <c r="G268" t="s">
-        <v>293</v>
-      </c>
-      <c r="H268" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8717,13 +8099,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>24</v>
-      </c>
-      <c r="G269" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8743,13 +8123,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>292</v>
-      </c>
-      <c r="G270" t="s">
-        <v>293</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8771,11 +8149,9 @@
       <c r="F271" t="s">
         <v>11</v>
       </c>
-      <c r="G271" t="s">
-        <v>12</v>
-      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8795,13 +8171,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>24</v>
-      </c>
-      <c r="G272" t="s">
-        <v>319</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8821,13 +8195,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>24</v>
-      </c>
-      <c r="G273" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8847,13 +8219,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>24</v>
-      </c>
-      <c r="G274" t="s">
-        <v>319</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8873,13 +8243,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>24</v>
-      </c>
-      <c r="G275" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8899,13 +8267,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>24</v>
-      </c>
-      <c r="G276" t="s">
-        <v>319</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8925,13 +8291,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>24</v>
-      </c>
-      <c r="G277" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8951,13 +8315,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>24</v>
-      </c>
-      <c r="G278" t="s">
-        <v>319</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8977,13 +8339,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>24</v>
-      </c>
-      <c r="G279" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9003,13 +8363,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>24</v>
-      </c>
-      <c r="G280" t="s">
-        <v>319</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9029,13 +8387,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>24</v>
-      </c>
-      <c r="G281" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9055,13 +8411,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>24</v>
-      </c>
-      <c r="G282" t="s">
-        <v>319</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9081,13 +8435,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>24</v>
-      </c>
-      <c r="G283" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9107,13 +8459,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>24</v>
-      </c>
-      <c r="G284" t="s">
-        <v>319</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9133,13 +8483,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>24</v>
-      </c>
-      <c r="G285" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9159,13 +8507,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>24</v>
-      </c>
-      <c r="G286" t="s">
-        <v>319</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9185,13 +8531,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>15</v>
-      </c>
-      <c r="G287" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9211,13 +8555,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>24</v>
-      </c>
-      <c r="G288" t="s">
-        <v>319</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9237,13 +8579,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>19</v>
-      </c>
-      <c r="G289" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9265,11 +8605,9 @@
       <c r="F290" t="s">
         <v>11</v>
       </c>
-      <c r="G290" t="s">
-        <v>12</v>
-      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9289,13 +8627,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>24</v>
-      </c>
-      <c r="G291" t="s">
-        <v>319</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9315,13 +8651,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>24</v>
-      </c>
-      <c r="G292" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9341,13 +8675,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>24</v>
-      </c>
-      <c r="G293" t="s">
-        <v>319</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9367,13 +8699,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>24</v>
-      </c>
-      <c r="G294" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9393,13 +8723,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>24</v>
-      </c>
-      <c r="G295" t="s">
+        <v>21</v>
+      </c>
+      <c r="G295" t="s"/>
+      <c r="H295" t="s">
         <v>319</v>
-      </c>
-      <c r="H295" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9419,13 +8747,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>24</v>
-      </c>
-      <c r="G296" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9445,13 +8771,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>24</v>
-      </c>
-      <c r="G297" t="s">
-        <v>319</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9473,11 +8797,9 @@
       <c r="F298" t="s">
         <v>11</v>
       </c>
-      <c r="G298" t="s">
-        <v>12</v>
-      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9497,13 +8819,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>347</v>
-      </c>
-      <c r="G299" t="s">
-        <v>348</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9523,13 +8843,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>24</v>
-      </c>
-      <c r="G300" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9549,13 +8867,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>347</v>
-      </c>
-      <c r="G301" t="s">
-        <v>348</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9575,13 +8891,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>24</v>
-      </c>
-      <c r="G302" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9601,13 +8915,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>347</v>
-      </c>
-      <c r="G303" t="s">
-        <v>348</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9627,13 +8939,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>24</v>
-      </c>
-      <c r="G304" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9653,13 +8963,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>347</v>
-      </c>
-      <c r="G305" t="s">
-        <v>348</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9679,13 +8987,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>24</v>
-      </c>
-      <c r="G306" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9705,13 +9011,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>347</v>
-      </c>
-      <c r="G307" t="s">
-        <v>348</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9733,11 +9037,9 @@
       <c r="F308" t="s">
         <v>11</v>
       </c>
-      <c r="G308" t="s">
-        <v>12</v>
-      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9757,13 +9059,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>359</v>
-      </c>
-      <c r="G309" t="s">
-        <v>360</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9783,13 +9083,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>24</v>
-      </c>
-      <c r="G310" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9809,13 +9107,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>359</v>
-      </c>
-      <c r="G311" t="s">
-        <v>360</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9835,13 +9131,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>24</v>
-      </c>
-      <c r="G312" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9861,13 +9155,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>359</v>
-      </c>
-      <c r="G313" t="s">
-        <v>360</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9887,13 +9179,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>24</v>
-      </c>
-      <c r="G314" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9913,13 +9203,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>359</v>
-      </c>
-      <c r="G315" t="s">
-        <v>360</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9941,11 +9229,9 @@
       <c r="F316" t="s">
         <v>11</v>
       </c>
-      <c r="G316" t="s">
-        <v>12</v>
-      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9965,13 +9251,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>369</v>
-      </c>
-      <c r="G317" t="s">
-        <v>370</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9991,13 +9275,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>24</v>
-      </c>
-      <c r="G318" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10017,13 +9299,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>369</v>
-      </c>
-      <c r="G319" t="s">
-        <v>370</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10043,13 +9323,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>24</v>
-      </c>
-      <c r="G320" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10069,13 +9347,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>369</v>
-      </c>
-      <c r="G321" t="s">
-        <v>370</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10095,13 +9371,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>24</v>
-      </c>
-      <c r="G322" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10121,13 +9395,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>369</v>
-      </c>
-      <c r="G323" t="s">
-        <v>370</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10147,13 +9419,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>24</v>
-      </c>
-      <c r="G324" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10173,13 +9443,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>369</v>
-      </c>
-      <c r="G325" t="s">
-        <v>370</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10199,13 +9467,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>24</v>
-      </c>
-      <c r="G326" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10225,13 +9491,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>369</v>
-      </c>
-      <c r="G327" t="s">
-        <v>370</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10251,13 +9515,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>24</v>
-      </c>
-      <c r="G328" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10277,13 +9539,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>369</v>
-      </c>
-      <c r="G329" t="s">
-        <v>370</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10303,13 +9563,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>24</v>
-      </c>
-      <c r="G330" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10329,13 +9587,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>369</v>
-      </c>
-      <c r="G331" t="s">
-        <v>370</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10355,13 +9611,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>24</v>
-      </c>
-      <c r="G332" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10381,13 +9635,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>369</v>
-      </c>
-      <c r="G333" t="s">
-        <v>370</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10407,13 +9659,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>24</v>
-      </c>
-      <c r="G334" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10433,13 +9683,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>369</v>
-      </c>
-      <c r="G335" t="s">
-        <v>370</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10461,11 +9709,9 @@
       <c r="F336" t="s">
         <v>11</v>
       </c>
-      <c r="G336" t="s">
-        <v>12</v>
-      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10485,13 +9731,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>40</v>
-      </c>
-      <c r="G337" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10511,13 +9755,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>24</v>
-      </c>
-      <c r="G338" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10537,13 +9779,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>40</v>
-      </c>
-      <c r="G339" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10563,13 +9803,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>24</v>
-      </c>
-      <c r="G340" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10589,13 +9827,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>40</v>
-      </c>
-      <c r="G341" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10615,13 +9851,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>24</v>
-      </c>
-      <c r="G342" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10641,13 +9875,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>40</v>
-      </c>
-      <c r="G343" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10667,13 +9899,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>24</v>
-      </c>
-      <c r="G344" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10693,13 +9923,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>40</v>
-      </c>
-      <c r="G345" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10721,11 +9949,9 @@
       <c r="F346" t="s">
         <v>11</v>
       </c>
-      <c r="G346" t="s">
-        <v>12</v>
-      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10745,13 +9971,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>24</v>
-      </c>
-      <c r="G347" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10771,13 +9995,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>24</v>
-      </c>
-      <c r="G348" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10797,13 +10019,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>24</v>
-      </c>
-      <c r="G349" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10823,13 +10043,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>24</v>
-      </c>
-      <c r="G350" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10849,13 +10067,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>24</v>
-      </c>
-      <c r="G351" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10875,13 +10091,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>24</v>
-      </c>
-      <c r="G352" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10901,13 +10115,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>24</v>
-      </c>
-      <c r="G353" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10927,13 +10139,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>24</v>
-      </c>
-      <c r="G354" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10953,13 +10163,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>24</v>
-      </c>
-      <c r="G355" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10979,13 +10187,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>24</v>
-      </c>
-      <c r="G356" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11005,13 +10211,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>24</v>
-      </c>
-      <c r="G357" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11031,13 +10235,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>24</v>
-      </c>
-      <c r="G358" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11057,13 +10259,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>24</v>
-      </c>
-      <c r="G359" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11083,13 +10283,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>24</v>
-      </c>
-      <c r="G360" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11109,13 +10307,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>24</v>
-      </c>
-      <c r="G361" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11135,13 +10331,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>24</v>
-      </c>
-      <c r="G362" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11161,13 +10355,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>24</v>
-      </c>
-      <c r="G363" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11187,13 +10379,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>24</v>
-      </c>
-      <c r="G364" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11213,13 +10403,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>24</v>
-      </c>
-      <c r="G365" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11239,13 +10427,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>24</v>
-      </c>
-      <c r="G366" t="s">
-        <v>59</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11265,13 +10451,11 @@
         <v>10</v>
       </c>
       <c r="F367" t="s">
-        <v>24</v>
-      </c>
-      <c r="G367" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11293,11 +10477,9 @@
       <c r="F368" t="s">
         <v>11</v>
       </c>
-      <c r="G368" t="s">
-        <v>12</v>
-      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11317,13 +10499,11 @@
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>102</v>
-      </c>
-      <c r="G369" t="s">
-        <v>103</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11343,13 +10523,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>24</v>
-      </c>
-      <c r="G370" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11371,11 +10549,9 @@
       <c r="F371" t="s">
         <v>11</v>
       </c>
-      <c r="G371" t="s">
-        <v>12</v>
-      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11395,13 +10571,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>424</v>
-      </c>
-      <c r="G372" t="s">
-        <v>425</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11421,13 +10595,11 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>24</v>
-      </c>
-      <c r="G373" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11447,13 +10619,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>424</v>
-      </c>
-      <c r="G374" t="s">
-        <v>425</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11473,13 +10643,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>24</v>
-      </c>
-      <c r="G375" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11499,13 +10667,11 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>424</v>
-      </c>
-      <c r="G376" t="s">
-        <v>425</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11525,13 +10691,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>24</v>
-      </c>
-      <c r="G377" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11551,13 +10715,11 @@
         <v>10</v>
       </c>
       <c r="F378" t="s">
-        <v>424</v>
-      </c>
-      <c r="G378" t="s">
-        <v>425</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11577,13 +10739,11 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>24</v>
-      </c>
-      <c r="G379" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11603,13 +10763,11 @@
         <v>10</v>
       </c>
       <c r="F380" t="s">
-        <v>424</v>
-      </c>
-      <c r="G380" t="s">
-        <v>425</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11629,13 +10787,11 @@
         <v>10</v>
       </c>
       <c r="F381" t="s">
-        <v>24</v>
-      </c>
-      <c r="G381" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11655,13 +10811,11 @@
         <v>10</v>
       </c>
       <c r="F382" t="s">
-        <v>424</v>
-      </c>
-      <c r="G382" t="s">
-        <v>425</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11681,13 +10835,11 @@
         <v>10</v>
       </c>
       <c r="F383" t="s">
-        <v>24</v>
-      </c>
-      <c r="G383" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11707,13 +10859,11 @@
         <v>10</v>
       </c>
       <c r="F384" t="s">
-        <v>424</v>
-      </c>
-      <c r="G384" t="s">
-        <v>425</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11733,13 +10883,11 @@
         <v>10</v>
       </c>
       <c r="F385" t="s">
-        <v>24</v>
-      </c>
-      <c r="G385" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11759,13 +10907,11 @@
         <v>10</v>
       </c>
       <c r="F386" t="s">
-        <v>424</v>
-      </c>
-      <c r="G386" t="s">
-        <v>425</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11785,13 +10931,11 @@
         <v>10</v>
       </c>
       <c r="F387" t="s">
-        <v>24</v>
-      </c>
-      <c r="G387" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11811,13 +10955,11 @@
         <v>10</v>
       </c>
       <c r="F388" t="s">
-        <v>424</v>
-      </c>
-      <c r="G388" t="s">
-        <v>425</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11837,13 +10979,11 @@
         <v>10</v>
       </c>
       <c r="F389" t="s">
-        <v>424</v>
-      </c>
-      <c r="G389" t="s">
-        <v>425</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11865,11 +11005,9 @@
       <c r="F390" t="s">
         <v>11</v>
       </c>
-      <c r="G390" t="s">
-        <v>12</v>
-      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11889,13 +11027,11 @@
         <v>10</v>
       </c>
       <c r="F391" t="s">
-        <v>15</v>
-      </c>
-      <c r="G391" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G391" t="s"/>
       <c r="H391" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11917,11 +11053,9 @@
       <c r="F392" t="s">
         <v>11</v>
       </c>
-      <c r="G392" t="s">
-        <v>12</v>
-      </c>
+      <c r="G392" t="s"/>
       <c r="H392" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -11941,13 +11075,11 @@
         <v>10</v>
       </c>
       <c r="F393" t="s">
-        <v>424</v>
-      </c>
-      <c r="G393" t="s">
-        <v>425</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -11969,11 +11101,9 @@
       <c r="F394" t="s">
         <v>11</v>
       </c>
-      <c r="G394" t="s">
-        <v>12</v>
-      </c>
+      <c r="G394" t="s"/>
       <c r="H394" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -11993,13 +11123,11 @@
         <v>10</v>
       </c>
       <c r="F395" t="s">
-        <v>19</v>
-      </c>
-      <c r="G395" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12021,11 +11149,9 @@
       <c r="F396" t="s">
         <v>11</v>
       </c>
-      <c r="G396" t="s">
-        <v>12</v>
-      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12045,13 +11171,11 @@
         <v>10</v>
       </c>
       <c r="F397" t="s">
-        <v>19</v>
-      </c>
-      <c r="G397" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G397" t="s"/>
       <c r="H397" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12073,11 +11197,9 @@
       <c r="F398" t="s">
         <v>11</v>
       </c>
-      <c r="G398" t="s">
-        <v>12</v>
-      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12099,11 +11221,9 @@
       <c r="F399" t="s">
         <v>11</v>
       </c>
-      <c r="G399" t="s">
-        <v>12</v>
-      </c>
+      <c r="G399" t="s"/>
       <c r="H399" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12123,13 +11243,11 @@
         <v>10</v>
       </c>
       <c r="F400" t="s">
-        <v>234</v>
-      </c>
-      <c r="G400" t="s">
-        <v>235</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G400" t="s"/>
       <c r="H400" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12151,11 +11269,9 @@
       <c r="F401" t="s">
         <v>11</v>
       </c>
-      <c r="G401" t="s">
-        <v>12</v>
-      </c>
+      <c r="G401" t="s"/>
       <c r="H401" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12175,13 +11291,11 @@
         <v>10</v>
       </c>
       <c r="F402" t="s">
-        <v>234</v>
-      </c>
-      <c r="G402" t="s">
-        <v>235</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G402" t="s"/>
       <c r="H402" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12203,11 +11317,9 @@
       <c r="F403" t="s">
         <v>11</v>
       </c>
-      <c r="G403" t="s">
-        <v>12</v>
-      </c>
+      <c r="G403" t="s"/>
       <c r="H403" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12229,11 +11341,9 @@
       <c r="F404" t="s">
         <v>11</v>
       </c>
-      <c r="G404" t="s">
-        <v>12</v>
-      </c>
+      <c r="G404" t="s"/>
       <c r="H404" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
